--- a/output.xlsx
+++ b/output.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH1"/>
+  <dimension ref="A1:CC1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,212 +424,293 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>VISAy \ense fs</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr"/>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Seen [SSN</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr"/>
+          <t>| wat</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>New!</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
       <c r="E1" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F1" t="inlineStr"/>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr"/>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr"/>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Ce</t>
         </is>
       </c>
       <c r="J1" t="inlineStr"/>
       <c r="K1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr"/>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr"/>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr"/>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr"/>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr"/>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr"/>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr"/>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr"/>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr"/>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr"/>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  </t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr"/>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>ENR er Reyyan Aleem Janbaz</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr"/>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>eT rS AdityaS</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr"/>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
       <c r="Y1" t="inlineStr">
         <is>
-          <t>) Visa, 6114672043 sl ay</t>
+          <t xml:space="preserve">   </t>
         </is>
       </c>
       <c r="Z1" t="inlineStr">
         <is>
-          <t>Date of sue 2202/2026</t>
+          <t xml:space="preserve">  </t>
         </is>
       </c>
       <c r="AA1" t="inlineStr"/>
       <c r="AB1" t="inlineStr">
         <is>
-          <t>) Va uit 6 15/11/1465 nal aay pg 90 Atuatle</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr"/>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>90 Days , untit 23/05/2026</t>
-        </is>
-      </c>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>a Vv</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr"/>
       <c r="AE1" t="inlineStr">
         <is>
-          <t>Duration of Stay 29/11/1445 nl aay pgs 90 als ba</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr"/>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>) 90 Days , until 06/06/2026</t>
-        </is>
-      </c>
+          <t xml:space="preserve">   </t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr"/>
       <c r="AH1" t="inlineStr">
         <is>
-          <t>Passport No. Z 09460189 sual jlge aby</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>WV VV</t>
-        </is>
-      </c>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr"/>
       <c r="AJ1" t="inlineStr">
         <is>
-          <t>Place of issue Saudi Digital Embassy ~ aap aysgouill 8yLaull Sui jase</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Name oldu! gata anne gle sl</t>
-        </is>
-      </c>
+          <t>UDBHAV S CHETTY IS-2...</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr"/>
       <c r="AL1" t="inlineStr">
         <is>
-          <t>iin Date 16/05/1969 all ut</t>
+          <t>. :</t>
         </is>
       </c>
       <c r="AM1" t="inlineStr">
         <is>
-          <t>Naoatiy i  Yeman-oadh Wa ai</t>
+          <t>(ay -</t>
         </is>
       </c>
       <c r="AN1" t="inlineStr">
         <is>
-          <t>ypeotvin Umrah =6jac) 5 ses</t>
+          <t>Es S</t>
         </is>
       </c>
       <c r="AO1" t="inlineStr">
         <is>
-          <t>aram Name al al</t>
+          <t>alu</t>
         </is>
       </c>
       <c r="AP1" t="inlineStr">
         <is>
-          <t>nvah Operator oualaall load yalnall elulle 244 eal ise</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>External Agent Alyy sya yoLuall gail dal</t>
-        </is>
-      </c>
+          <t>Pavan Kalyan Shivani Prakash pesianel Prasad</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr"/>
       <c r="AR1" t="inlineStr">
         <is>
-          <t>Borer No pallets</t>
+          <t>reyaa Kudremane Vishnu Sharma</t>
         </is>
       </c>
       <c r="AS1" t="inlineStr"/>
       <c r="AT1" t="inlineStr">
         <is>
-          <t>vas Wa AOU LAE tll aoy</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AU1" t="inlineStr"/>
       <c r="AV1" t="inlineStr">
         <is>
-          <t>erase</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr"/>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Application No. (1) CUO EE Sam</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr"/>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>760676476</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr"/>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>WVU</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr"/>
-      <c r="BD1" t="inlineStr">
+          <t>Vishwas Gowda</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr"/>
+      <c r="AY1" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="BE1" t="inlineStr"/>
+      <c r="AZ1" t="inlineStr"/>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr"/>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>Tn</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr"/>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>4 a</t>
+        </is>
+      </c>
       <c r="BF1" t="inlineStr">
         <is>
-          <t>1 &lt;YEMALSAKKAFCCALI&lt;HOHAMMED&lt;HASANC&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;&lt;</t>
+          <t>PN)</t>
         </is>
       </c>
       <c r="BG1" t="inlineStr">
         <is>
-          <t>(094601897 EM1605196911123&lt;&lt;&lt;ccccccKcKccccc&lt;Ot</t>
+          <t>y</t>
         </is>
       </c>
       <c r="BH1" t="inlineStr"/>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      </t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr"/>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr"/>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>NS NS</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>a a</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>Keerthi Reddy ol ba Sale yw ZLel- hi MANSI GUPTA CS-2022... Vismitha Raju Shashank Panthangi</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>ae. _ 4</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>NS NS NS NS</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>Vf Ce</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>Saichithra Saravanan .</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>NUPREETH MANDAPPA... yugal kishore Saichithra Saravanan GANESHDARSHAN VEN... hammedAlisakka</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr"/>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    </t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr"/>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>ch]</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr"/>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>8:51 PM | isc-mtkce-kgk KX a ws  ry) (Oe = ee</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr"/>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>H mm</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
